--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Mbl2-Cd93.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Mbl2-Cd93.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>122.328922</v>
+        <v>83.91225566666667</v>
       </c>
       <c r="N2">
-        <v>366.986766</v>
+        <v>251.736767</v>
       </c>
       <c r="O2">
-        <v>0.9783373008518612</v>
+        <v>0.9556261553553385</v>
       </c>
       <c r="P2">
-        <v>0.9783373008518613</v>
+        <v>0.9556261553553385</v>
       </c>
       <c r="Q2">
-        <v>20.17509746085</v>
+        <v>13.839228765825</v>
       </c>
       <c r="R2">
-        <v>181.57587714765</v>
+        <v>124.553058892425</v>
       </c>
       <c r="S2">
-        <v>0.9783373008518612</v>
+        <v>0.9556261553553385</v>
       </c>
       <c r="T2">
-        <v>0.9783373008518613</v>
+        <v>0.9556261553553385</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>1.159072</v>
       </c>
       <c r="O3">
-        <v>0.003089929874945324</v>
+        <v>0.00439999103960854</v>
       </c>
       <c r="P3">
-        <v>0.003089929874945324</v>
+        <v>0.00439999103960854</v>
       </c>
       <c r="Q3">
         <v>0.06371998320000001</v>
@@ -632,10 +632,10 @@
         <v>0.5734798488</v>
       </c>
       <c r="S3">
-        <v>0.003089929874945324</v>
+        <v>0.00439999103960854</v>
       </c>
       <c r="T3">
-        <v>0.003089929874945324</v>
+        <v>0.00439999103960854</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.322294</v>
+        <v>3.510050666666667</v>
       </c>
       <c r="N4">
-        <v>6.966882</v>
+        <v>10.530152</v>
       </c>
       <c r="O4">
-        <v>0.0185727692731934</v>
+        <v>0.03997385360505296</v>
       </c>
       <c r="P4">
-        <v>0.0185727692731934</v>
+        <v>0.03997385360505297</v>
       </c>
       <c r="Q4">
-        <v>0.38300433795</v>
+        <v>0.5788951062000001</v>
       </c>
       <c r="R4">
-        <v>3.44703904155</v>
+        <v>5.210055955800001</v>
       </c>
       <c r="S4">
-        <v>0.0185727692731934</v>
+        <v>0.03997385360505296</v>
       </c>
       <c r="T4">
-        <v>0.0185727692731934</v>
+        <v>0.03997385360505297</v>
       </c>
     </row>
   </sheetData>
